--- a/spreadsheet/CubeSatSim TLM Analysis.xlsx
+++ b/spreadsheet/CubeSatSim TLM Analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajohns71\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alan/Dropbox/New CubeSat Sim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802F1F93-D7AC-46BA-8482-F8F7C44B9176}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39C6D0E7-13D5-384F-89E8-71834917407F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23580" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23580" windowHeight="14460" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Explanation" sheetId="1" r:id="rId1"/>
@@ -22,19 +22,12 @@
     <sheet name="Data Input" sheetId="3" r:id="rId7"/>
     <sheet name="Sample Data" sheetId="13" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2156" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2162" uniqueCount="194">
   <si>
     <t>Function:</t>
   </si>
@@ -5873,10 +5866,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>7123430</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>74930</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4109720" cy="3755772"/>
     <xdr:sp macro="" textlink="">
@@ -5892,7 +5885,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7123430" y="273050"/>
+          <a:off x="7720330" y="190500"/>
           <a:ext cx="4109720" cy="3755772"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6195,10 +6188,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>7054850</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4109720" cy="3755772"/>
     <xdr:sp macro="" textlink="">
@@ -6214,7 +6207,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7054850" y="273050"/>
+          <a:off x="7893050" y="304800"/>
           <a:ext cx="4109720" cy="3755772"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6900,19 +6893,19 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.453125" customWidth="1"/>
-    <col min="2" max="2" width="28.1796875" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="5" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="5" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>98</v>
       </c>
@@ -6932,7 +6925,7 @@
       <c r="O1" s="12"/>
       <c r="P1" s="12"/>
     </row>
-    <row r="2" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>37430</v>
       </c>
@@ -6952,7 +6945,7 @@
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
         <v>96</v>
       </c>
@@ -6972,7 +6965,7 @@
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
     </row>
-    <row r="4" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -6992,7 +6985,7 @@
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
     </row>
-    <row r="5" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
@@ -7024,7 +7017,7 @@
       <c r="O5" s="17"/>
       <c r="P5" s="17"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="21" t="s">
         <v>4</v>
       </c>
@@ -7032,8 +7025,8 @@
         <v>28</v>
       </c>
       <c r="C6" s="32" t="str">
-        <f ca="1">INDIRECT("TLM!C"&amp;$L$33)</f>
-        <v/>
+        <f ca="1">IFERROR(INDIRECT("TLM!C"&amp;$L$33),"")</f>
+        <v>1A</v>
       </c>
       <c r="D6" s="23" t="str">
         <f ca="1">IFERROR(C6*29.5,"")</f>
@@ -7058,7 +7051,7 @@
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="21" t="s">
         <v>5</v>
       </c>
@@ -7066,8 +7059,8 @@
         <v>29</v>
       </c>
       <c r="C7" s="32" t="str">
-        <f ca="1">INDIRECT("TLM!G"&amp;$L$33)</f>
-        <v/>
+        <f ca="1">IFERROR(INDIRECT("TLM!G"&amp;$L$33),"")</f>
+        <v>1B</v>
       </c>
       <c r="D7" s="23" t="str">
         <f ca="1">IFERROR(1970-(20*C7),"")</f>
@@ -7092,7 +7085,7 @@
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="21" t="s">
         <v>6</v>
       </c>
@@ -7100,8 +7093,8 @@
         <v>30</v>
       </c>
       <c r="C8" s="32" t="str">
-        <f ca="1">INDIRECT("TLM!K"&amp;$L$33)</f>
-        <v/>
+        <f ca="1">IFERROR(INDIRECT("TLM!K"&amp;$L$33),"")</f>
+        <v>1C</v>
       </c>
       <c r="D8" s="23" t="str">
         <f ca="1">IFERROR(B21970-(20*C8),"")</f>
@@ -7126,7 +7119,7 @@
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="21" t="s">
         <v>7</v>
       </c>
@@ -7134,8 +7127,8 @@
         <v>31</v>
       </c>
       <c r="C9" s="32" t="str">
-        <f ca="1">INDIRECT("TLM!O"&amp;$L$33)</f>
-        <v/>
+        <f ca="1">IFERROR(INDIRECT("TLM!O"&amp;$L$33),"")</f>
+        <v>1D</v>
       </c>
       <c r="D9" s="23" t="str">
         <f ca="1">IFERROR(B21970-(20*C9),"")</f>
@@ -7160,7 +7153,7 @@
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="21" t="s">
         <v>8</v>
       </c>
@@ -7168,8 +7161,8 @@
         <v>32</v>
       </c>
       <c r="C10" s="33" t="str">
-        <f ca="1">INDIRECT("TLM!S"&amp;$L$33)</f>
-        <v/>
+        <f ca="1">IFERROR(INDIRECT("TLM!S"&amp;$L$33),"")</f>
+        <v>2A</v>
       </c>
       <c r="D10" s="23" t="str">
         <f ca="1">IFERROR(1970-(20*C10),"")</f>
@@ -7194,7 +7187,7 @@
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="21" t="s">
         <v>9</v>
       </c>
@@ -7202,8 +7195,8 @@
         <v>48</v>
       </c>
       <c r="C11" s="33" t="str">
-        <f ca="1">INDIRECT("TLM!W"&amp;$L$33)</f>
-        <v/>
+        <f ca="1">IFERROR(INDIRECT("TLM!W"&amp;$L$33),"")</f>
+        <v>2B</v>
       </c>
       <c r="D11" s="25" t="str">
         <f ca="1">IFERROR(8*(1-0.01*C11)^2,"")</f>
@@ -7228,7 +7221,7 @@
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="21" t="s">
         <v>10</v>
       </c>
@@ -7236,8 +7229,8 @@
         <v>33</v>
       </c>
       <c r="C12" s="33" t="str">
-        <f ca="1">INDIRECT("TLM!AA"&amp;$L$33)</f>
-        <v/>
+        <f ca="1">IFERROR(INDIRECT("TLM!AA"&amp;$L$33),"")</f>
+        <v>2C</v>
       </c>
       <c r="D12" s="23" t="str">
         <f ca="1">IFERROR(15.16*C12,"")</f>
@@ -7262,7 +7255,7 @@
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="21" t="s">
         <v>11</v>
       </c>
@@ -7270,8 +7263,8 @@
         <v>34</v>
       </c>
       <c r="C13" s="33" t="str">
-        <f ca="1">INDIRECT("TLM!AE"&amp;$L$33)</f>
-        <v/>
+        <f ca="1">IFERROR(INDIRECT("TLM!AE"&amp;$L$33),"")</f>
+        <v>2D</v>
       </c>
       <c r="D13" s="23" t="str">
         <f ca="1">IFERROR(40*(C13-50),"")</f>
@@ -7294,7 +7287,7 @@
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="21" t="s">
         <v>12</v>
       </c>
@@ -7302,8 +7295,8 @@
         <v>35</v>
       </c>
       <c r="C14" s="33" t="str">
-        <f ca="1">INDIRECT("TLM!AI"&amp;$L$33)</f>
-        <v/>
+        <f ca="1">IFERROR(INDIRECT("TLM!AI"&amp;$L$33),"")</f>
+        <v>3A</v>
       </c>
       <c r="D14" s="26" t="str">
         <f ca="1">IFERROR(0.1*C14+6.4,"")</f>
@@ -7328,7 +7321,7 @@
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="21" t="s">
         <v>13</v>
       </c>
@@ -7336,8 +7329,8 @@
         <v>36</v>
       </c>
       <c r="C15" s="33" t="str">
-        <f ca="1">INDIRECT("TLM!AM"&amp;$L$33)</f>
-        <v/>
+        <f ca="1">IFERROR(INDIRECT("TLM!AM"&amp;$L$33),"")</f>
+        <v>3B</v>
       </c>
       <c r="D15" s="26" t="str">
         <f ca="1">IFERROR(0.1*C15,"")</f>
@@ -7360,7 +7353,7 @@
       <c r="O15" s="22"/>
       <c r="P15" s="22"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="21" t="s">
         <v>14</v>
       </c>
@@ -7368,8 +7361,8 @@
         <v>37</v>
       </c>
       <c r="C16" s="33" t="str">
-        <f ca="1">INDIRECT("TLM!AQ"&amp;$L$33)</f>
-        <v/>
+        <f ca="1">IFERROR(INDIRECT("TLM!AQ"&amp;$L$33),"")</f>
+        <v>3C</v>
       </c>
       <c r="D16" s="25" t="str">
         <f ca="1">IFERROR(0.15*C16,"")</f>
@@ -7394,7 +7387,7 @@
       <c r="O16" s="22"/>
       <c r="P16" s="22"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="21" t="s">
         <v>15</v>
       </c>
@@ -7402,11 +7395,11 @@
         <v>38</v>
       </c>
       <c r="C17" s="33" t="str">
-        <f ca="1">INDIRECT("TLM!AU"&amp;$L$33)</f>
-        <v/>
+        <f ca="1">IFERROR(INDIRECT("TLM!AU"&amp;$L$33),"")</f>
+        <v>3D</v>
       </c>
       <c r="D17" s="26" t="str">
-        <f ca="1">IFERROR(95.8-1.48*C17,"")</f>
+        <f t="shared" ref="D17:D22" ca="1" si="0">IFERROR(95.8-1.48*C17,"")</f>
         <v/>
       </c>
       <c r="E17" s="22">
@@ -7426,7 +7419,7 @@
       <c r="O17" s="22"/>
       <c r="P17" s="22"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="21" t="s">
         <v>16</v>
       </c>
@@ -7434,11 +7427,11 @@
         <v>39</v>
       </c>
       <c r="C18" s="33" t="str">
-        <f ca="1">INDIRECT("TLM!AY"&amp;$L$33)</f>
-        <v/>
+        <f ca="1">IFERROR(INDIRECT("TLM!AY"&amp;$L$33),"")</f>
+        <v>4A</v>
       </c>
       <c r="D18" s="26" t="str">
-        <f ca="1">IFERROR(95.8-1.48*C18,"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E18" s="22">
@@ -7458,7 +7451,7 @@
       <c r="O18" s="22"/>
       <c r="P18" s="22"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="21" t="s">
         <v>17</v>
       </c>
@@ -7466,11 +7459,11 @@
         <v>40</v>
       </c>
       <c r="C19" s="33" t="str">
-        <f ca="1">INDIRECT("TLM!BC"&amp;$L$33)</f>
-        <v/>
+        <f ca="1">IFERROR(INDIRECT("TLM!BC"&amp;$L$33),"")</f>
+        <v>4B</v>
       </c>
       <c r="D19" s="26" t="str">
-        <f ca="1">IFERROR(95.8-1.48*C19,"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E19" s="22">
@@ -7490,7 +7483,7 @@
       <c r="O19" s="22"/>
       <c r="P19" s="22"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="21" t="s">
         <v>18</v>
       </c>
@@ -7498,11 +7491,11 @@
         <v>41</v>
       </c>
       <c r="C20" s="33" t="str">
-        <f ca="1">INDIRECT("TLM!BG"&amp;$L$33)</f>
-        <v/>
+        <f ca="1">IFERROR(INDIRECT("TLM!BG"&amp;$L$33),"")</f>
+        <v>4C</v>
       </c>
       <c r="D20" s="26" t="str">
-        <f ca="1">IFERROR(95.8-1.48*C20,"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E20" s="22">
@@ -7522,7 +7515,7 @@
       <c r="O20" s="22"/>
       <c r="P20" s="22"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="21" t="s">
         <v>19</v>
       </c>
@@ -7530,11 +7523,11 @@
         <v>42</v>
       </c>
       <c r="C21" s="33" t="str">
-        <f ca="1">INDIRECT("TLM!BK"&amp;$L$33)</f>
-        <v/>
+        <f ca="1">IFERROR(INDIRECT("TLM!BK"&amp;$L$33),"")</f>
+        <v>4D</v>
       </c>
       <c r="D21" s="26" t="str">
-        <f ca="1">IFERROR(95.8-1.48*C21,"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E21" s="22">
@@ -7554,7 +7547,7 @@
       <c r="O21" s="22"/>
       <c r="P21" s="22"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="21" t="s">
         <v>20</v>
       </c>
@@ -7562,11 +7555,11 @@
         <v>43</v>
       </c>
       <c r="C22" s="33" t="str">
-        <f ca="1">INDIRECT("TLM!BO"&amp;$L$33)</f>
-        <v/>
+        <f ca="1">IFERROR(INDIRECT("TLM!BO"&amp;$L$33),"")</f>
+        <v>5A</v>
       </c>
       <c r="D22" s="26" t="str">
-        <f ca="1">IFERROR(95.8-1.48*C22,"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E22" s="22">
@@ -7588,7 +7581,7 @@
       <c r="O22" s="22"/>
       <c r="P22" s="22"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="21" t="s">
         <v>21</v>
       </c>
@@ -7596,8 +7589,8 @@
         <v>44</v>
       </c>
       <c r="C23" s="33" t="str">
-        <f ca="1">INDIRECT("TLM!BS"&amp;$L$33)</f>
-        <v/>
+        <f ca="1">IFERROR(INDIRECT("TLM!BS"&amp;$L$33),"")</f>
+        <v>5B</v>
       </c>
       <c r="D23" s="26" t="str">
         <f ca="1">IFERROR(11.67*C23,"")</f>
@@ -7622,7 +7615,7 @@
       <c r="O23" s="22"/>
       <c r="P23" s="22"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="21" t="s">
         <v>22</v>
       </c>
@@ -7630,8 +7623,8 @@
         <v>45</v>
       </c>
       <c r="C24" s="33" t="str">
-        <f ca="1">INDIRECT("TLM!BW"&amp;$L$33)</f>
-        <v/>
+        <f ca="1">IFERROR(INDIRECT("TLM!BW"&amp;$L$33),"")</f>
+        <v>5C</v>
       </c>
       <c r="D24" s="26" t="str">
         <f ca="1">IFERROR(95.8-1.48*C24,"")</f>
@@ -7656,7 +7649,7 @@
       <c r="O24" s="22"/>
       <c r="P24" s="22"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="21" t="s">
         <v>23</v>
       </c>
@@ -7664,8 +7657,8 @@
         <v>46</v>
       </c>
       <c r="C25" s="33" t="str">
-        <f ca="1">INDIRECT("TLM!CA"&amp;$L$33)</f>
-        <v/>
+        <f ca="1">IFERROR(INDIRECT("TLM!CA"&amp;$L$33),"")</f>
+        <v>5D</v>
       </c>
       <c r="D25" s="23" t="str">
         <f ca="1">IFERROR(11+0.82*C25,"")</f>
@@ -7690,7 +7683,7 @@
       <c r="O25" s="22"/>
       <c r="P25" s="22"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="21" t="s">
         <v>24</v>
       </c>
@@ -7698,8 +7691,8 @@
         <v>47</v>
       </c>
       <c r="C26" s="33" t="str">
-        <f ca="1">INDIRECT("TLM!CE"&amp;$L$33)</f>
-        <v/>
+        <f ca="1">IFERROR(INDIRECT("TLM!CE"&amp;$L$33),"")</f>
+        <v>6A</v>
       </c>
       <c r="D26" s="23" t="str">
         <f ca="1">IFERROR(C26^2/1.56,"")</f>
@@ -7724,7 +7717,7 @@
       <c r="O26" s="22"/>
       <c r="P26" s="22"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="21" t="s">
         <v>25</v>
       </c>
@@ -7732,8 +7725,8 @@
         <v>49</v>
       </c>
       <c r="C27" s="33" t="str">
-        <f ca="1">INDIRECT("TLM!CI"&amp;$L$33)</f>
-        <v/>
+        <f ca="1">IFERROR(INDIRECT("TLM!CI"&amp;$L$33),"")</f>
+        <v>6B</v>
       </c>
       <c r="D27" s="23" t="str">
         <f ca="1">IFERROR(0.1*C27^2+35,"")</f>
@@ -7758,7 +7751,7 @@
       <c r="O27" s="22"/>
       <c r="P27" s="22"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="21" t="s">
         <v>26</v>
       </c>
@@ -7766,8 +7759,8 @@
         <v>50</v>
       </c>
       <c r="C28" s="33" t="str">
-        <f ca="1">INDIRECT("TLM!CM"&amp;$L$33)</f>
-        <v/>
+        <f ca="1">IFERROR(INDIRECT("TLM!CM"&amp;$L$33),"")</f>
+        <v>6C</v>
       </c>
       <c r="D28" s="23" t="str">
         <f ca="1">IFERROR(0.041*C28^2,"")</f>
@@ -7792,7 +7785,7 @@
       <c r="O28" s="22"/>
       <c r="P28" s="22"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="21" t="s">
         <v>27</v>
       </c>
@@ -7800,8 +7793,8 @@
         <v>51</v>
       </c>
       <c r="C29" s="33" t="str">
-        <f ca="1">INDIRECT("TLM!CQ"&amp;$L$33)</f>
-        <v/>
+        <f ca="1">IFERROR(INDIRECT("TLM!CQ"&amp;$L$33),"")</f>
+        <v>6D</v>
       </c>
       <c r="D29" s="25" t="str">
         <f ca="1">IFERROR(0.01*C29,"")</f>
@@ -7826,16 +7819,16 @@
       <c r="O29" s="22"/>
       <c r="P29" s="22"/>
     </row>
-    <row r="32" spans="1:16" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="3:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="3:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="K33" s="34" t="s">
         <v>116</v>
       </c>
       <c r="L33" s="35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C34" s="2" t="s">
         <v>72</v>
       </c>
@@ -7849,7 +7842,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C35" s="5" t="s">
         <v>76</v>
       </c>
@@ -7863,7 +7856,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C36" s="5" t="s">
         <v>80</v>
       </c>
@@ -7877,7 +7870,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C37" s="5" t="s">
         <v>84</v>
       </c>
@@ -7891,7 +7884,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C38" s="5" t="s">
         <v>88</v>
       </c>
@@ -7905,7 +7898,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="3:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C39" s="8" t="s">
         <v>92</v>
       </c>
@@ -7933,63 +7926,63 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:CR117"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="C52" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="8.81640625" style="33" hidden="1" customWidth="1"/>
-    <col min="3" max="4" width="8.81640625" style="33" customWidth="1"/>
-    <col min="5" max="6" width="8.81640625" style="33" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="8.81640625" style="33" customWidth="1"/>
-    <col min="9" max="10" width="8.81640625" style="33" hidden="1" customWidth="1"/>
-    <col min="11" max="12" width="8.81640625" style="33" customWidth="1"/>
-    <col min="13" max="14" width="8.81640625" style="33" hidden="1" customWidth="1"/>
-    <col min="15" max="16" width="8.81640625" style="33" customWidth="1"/>
-    <col min="17" max="18" width="8.81640625" style="33" hidden="1" customWidth="1"/>
-    <col min="19" max="20" width="8.81640625" style="33" customWidth="1"/>
-    <col min="21" max="22" width="8.81640625" style="33" hidden="1" customWidth="1"/>
-    <col min="23" max="24" width="8.81640625" style="33" customWidth="1"/>
-    <col min="25" max="26" width="8.81640625" style="33" hidden="1" customWidth="1"/>
-    <col min="27" max="28" width="8.81640625" style="33" customWidth="1"/>
-    <col min="29" max="30" width="8.81640625" style="33" hidden="1" customWidth="1"/>
-    <col min="31" max="32" width="8.81640625" style="33" customWidth="1"/>
-    <col min="33" max="34" width="8.81640625" style="33" hidden="1" customWidth="1"/>
-    <col min="35" max="36" width="8.81640625" style="33" customWidth="1"/>
-    <col min="37" max="38" width="8.81640625" style="33" hidden="1" customWidth="1"/>
-    <col min="39" max="40" width="8.81640625" style="33" customWidth="1"/>
-    <col min="41" max="42" width="8.81640625" style="33" hidden="1" customWidth="1"/>
-    <col min="43" max="44" width="8.81640625" style="33" customWidth="1"/>
-    <col min="45" max="46" width="8.81640625" style="33" hidden="1" customWidth="1"/>
-    <col min="47" max="48" width="8.81640625" style="33" customWidth="1"/>
-    <col min="49" max="50" width="8.81640625" style="33" hidden="1" customWidth="1"/>
-    <col min="51" max="52" width="8.81640625" style="33" customWidth="1"/>
-    <col min="53" max="54" width="8.81640625" style="33" hidden="1" customWidth="1"/>
-    <col min="55" max="56" width="8.81640625" style="33" customWidth="1"/>
-    <col min="57" max="58" width="8.81640625" style="33" hidden="1" customWidth="1"/>
-    <col min="59" max="60" width="8.81640625" style="33" customWidth="1"/>
-    <col min="61" max="62" width="8.81640625" style="33" hidden="1" customWidth="1"/>
-    <col min="63" max="64" width="8.81640625" style="33" customWidth="1"/>
-    <col min="65" max="66" width="8.81640625" style="33" hidden="1" customWidth="1"/>
-    <col min="67" max="68" width="8.81640625" style="33" customWidth="1"/>
-    <col min="69" max="70" width="8.81640625" style="33" hidden="1" customWidth="1"/>
-    <col min="71" max="72" width="8.81640625" style="33" customWidth="1"/>
-    <col min="73" max="74" width="8.81640625" style="33" hidden="1" customWidth="1"/>
-    <col min="75" max="76" width="8.81640625" style="33" customWidth="1"/>
-    <col min="77" max="78" width="8.81640625" style="33" hidden="1" customWidth="1"/>
-    <col min="79" max="80" width="8.81640625" style="33" customWidth="1"/>
-    <col min="81" max="82" width="8.81640625" style="33" hidden="1" customWidth="1"/>
-    <col min="83" max="84" width="8.81640625" style="33" customWidth="1"/>
-    <col min="85" max="86" width="8.81640625" style="33" hidden="1" customWidth="1"/>
-    <col min="87" max="88" width="8.81640625" style="33" customWidth="1"/>
-    <col min="89" max="90" width="8.81640625" style="33" hidden="1" customWidth="1"/>
-    <col min="91" max="92" width="8.81640625" style="33" customWidth="1"/>
-    <col min="93" max="94" width="8.81640625" style="33" hidden="1" customWidth="1"/>
-    <col min="95" max="16384" width="8.81640625" style="33"/>
+    <col min="1" max="2" width="8.83203125" style="33" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="8.83203125" style="33" customWidth="1"/>
+    <col min="5" max="6" width="8.83203125" style="33" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="8.83203125" style="33" customWidth="1"/>
+    <col min="9" max="10" width="8.83203125" style="33" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="8.83203125" style="33" customWidth="1"/>
+    <col min="13" max="14" width="8.83203125" style="33" hidden="1" customWidth="1"/>
+    <col min="15" max="16" width="8.83203125" style="33" customWidth="1"/>
+    <col min="17" max="18" width="8.83203125" style="33" hidden="1" customWidth="1"/>
+    <col min="19" max="20" width="8.83203125" style="33" customWidth="1"/>
+    <col min="21" max="22" width="8.83203125" style="33" hidden="1" customWidth="1"/>
+    <col min="23" max="24" width="8.83203125" style="33" customWidth="1"/>
+    <col min="25" max="26" width="8.83203125" style="33" hidden="1" customWidth="1"/>
+    <col min="27" max="28" width="8.83203125" style="33" customWidth="1"/>
+    <col min="29" max="30" width="8.83203125" style="33" hidden="1" customWidth="1"/>
+    <col min="31" max="32" width="8.83203125" style="33" customWidth="1"/>
+    <col min="33" max="34" width="8.83203125" style="33" hidden="1" customWidth="1"/>
+    <col min="35" max="36" width="8.83203125" style="33" customWidth="1"/>
+    <col min="37" max="38" width="8.83203125" style="33" hidden="1" customWidth="1"/>
+    <col min="39" max="40" width="8.83203125" style="33" customWidth="1"/>
+    <col min="41" max="42" width="8.83203125" style="33" hidden="1" customWidth="1"/>
+    <col min="43" max="44" width="8.83203125" style="33" customWidth="1"/>
+    <col min="45" max="46" width="8.83203125" style="33" hidden="1" customWidth="1"/>
+    <col min="47" max="48" width="8.83203125" style="33" customWidth="1"/>
+    <col min="49" max="50" width="8.83203125" style="33" hidden="1" customWidth="1"/>
+    <col min="51" max="52" width="8.83203125" style="33" customWidth="1"/>
+    <col min="53" max="54" width="8.83203125" style="33" hidden="1" customWidth="1"/>
+    <col min="55" max="56" width="8.83203125" style="33" customWidth="1"/>
+    <col min="57" max="58" width="8.83203125" style="33" hidden="1" customWidth="1"/>
+    <col min="59" max="60" width="8.83203125" style="33" customWidth="1"/>
+    <col min="61" max="62" width="8.83203125" style="33" hidden="1" customWidth="1"/>
+    <col min="63" max="64" width="8.83203125" style="33" customWidth="1"/>
+    <col min="65" max="66" width="8.83203125" style="33" hidden="1" customWidth="1"/>
+    <col min="67" max="68" width="8.83203125" style="33" customWidth="1"/>
+    <col min="69" max="70" width="8.83203125" style="33" hidden="1" customWidth="1"/>
+    <col min="71" max="72" width="8.83203125" style="33" customWidth="1"/>
+    <col min="73" max="74" width="8.83203125" style="33" hidden="1" customWidth="1"/>
+    <col min="75" max="76" width="8.83203125" style="33" customWidth="1"/>
+    <col min="77" max="78" width="8.83203125" style="33" hidden="1" customWidth="1"/>
+    <col min="79" max="80" width="8.83203125" style="33" customWidth="1"/>
+    <col min="81" max="82" width="8.83203125" style="33" hidden="1" customWidth="1"/>
+    <col min="83" max="84" width="8.83203125" style="33" customWidth="1"/>
+    <col min="85" max="86" width="8.83203125" style="33" hidden="1" customWidth="1"/>
+    <col min="87" max="88" width="8.83203125" style="33" customWidth="1"/>
+    <col min="89" max="90" width="8.83203125" style="33" hidden="1" customWidth="1"/>
+    <col min="91" max="92" width="8.83203125" style="33" customWidth="1"/>
+    <col min="93" max="94" width="8.83203125" style="33" hidden="1" customWidth="1"/>
+    <col min="95" max="16384" width="8.83203125" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:96" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
         <v>106</v>
       </c>
@@ -8144,7 +8137,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
         <v>104</v>
       </c>
@@ -8506,7 +8499,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A3" s="32" t="s">
         <v>104</v>
       </c>
@@ -8868,7 +8861,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A4" s="32" t="s">
         <v>104</v>
       </c>
@@ -9230,7 +9223,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A5" s="32" t="s">
         <v>104</v>
       </c>
@@ -9592,7 +9585,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A6" s="32" t="s">
         <v>104</v>
       </c>
@@ -9954,7 +9947,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A7" s="32" t="s">
         <v>104</v>
       </c>
@@ -10316,7 +10309,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A8" s="32" t="s">
         <v>104</v>
       </c>
@@ -10678,7 +10671,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A9" s="32" t="s">
         <v>104</v>
       </c>
@@ -11040,7 +11033,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A10" s="32" t="s">
         <v>104</v>
       </c>
@@ -11402,7 +11395,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A11" s="32" t="s">
         <v>104</v>
       </c>
@@ -11764,7 +11757,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A12" s="32" t="s">
         <v>104</v>
       </c>
@@ -12126,7 +12119,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A13" s="32" t="s">
         <v>104</v>
       </c>
@@ -12488,7 +12481,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A14" s="32" t="s">
         <v>104</v>
       </c>
@@ -12850,7 +12843,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A15" s="32" t="s">
         <v>104</v>
       </c>
@@ -13212,7 +13205,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A16" s="32" t="s">
         <v>104</v>
       </c>
@@ -13574,7 +13567,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A17" s="32" t="s">
         <v>104</v>
       </c>
@@ -13936,7 +13929,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A18" s="32" t="s">
         <v>104</v>
       </c>
@@ -14298,7 +14291,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A19" s="32" t="s">
         <v>104</v>
       </c>
@@ -14660,7 +14653,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A20" s="32" t="s">
         <v>104</v>
       </c>
@@ -15022,7 +15015,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A21" s="32" t="s">
         <v>104</v>
       </c>
@@ -15384,7 +15377,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A22" s="32" t="s">
         <v>104</v>
       </c>
@@ -15746,7 +15739,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A23" s="32" t="s">
         <v>104</v>
       </c>
@@ -16108,7 +16101,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A24" s="32" t="s">
         <v>104</v>
       </c>
@@ -16470,7 +16463,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A25" s="32" t="s">
         <v>104</v>
       </c>
@@ -16832,7 +16825,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A26" s="32" t="s">
         <v>104</v>
       </c>
@@ -17194,7 +17187,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A27" s="32" t="s">
         <v>104</v>
       </c>
@@ -17556,7 +17549,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A28" s="32" t="s">
         <v>104</v>
       </c>
@@ -17918,7 +17911,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A29" s="32" t="s">
         <v>104</v>
       </c>
@@ -18280,7 +18273,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A30" s="32" t="s">
         <v>104</v>
       </c>
@@ -18642,7 +18635,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A31" s="32" t="s">
         <v>104</v>
       </c>
@@ -19004,7 +18997,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A32" s="32" t="s">
         <v>104</v>
       </c>
@@ -19366,7 +19359,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A33" s="32" t="s">
         <v>104</v>
       </c>
@@ -19728,7 +19721,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A34" s="32" t="s">
         <v>104</v>
       </c>
@@ -20090,7 +20083,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A35" s="32" t="s">
         <v>104</v>
       </c>
@@ -20452,7 +20445,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A36" s="32" t="s">
         <v>104</v>
       </c>
@@ -20814,7 +20807,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A37" s="32" t="s">
         <v>104</v>
       </c>
@@ -21176,7 +21169,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A38" s="32" t="s">
         <v>104</v>
       </c>
@@ -21538,7 +21531,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A39" s="32" t="s">
         <v>104</v>
       </c>
@@ -21900,7 +21893,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A40" s="32" t="s">
         <v>104</v>
       </c>
@@ -22262,7 +22255,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A41" s="32" t="s">
         <v>104</v>
       </c>
@@ -22624,7 +22617,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A42" s="32" t="s">
         <v>104</v>
       </c>
@@ -22986,7 +22979,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A43" s="32" t="s">
         <v>104</v>
       </c>
@@ -23348,7 +23341,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A44" s="32" t="s">
         <v>104</v>
       </c>
@@ -23710,7 +23703,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A45" s="32" t="s">
         <v>104</v>
       </c>
@@ -24072,7 +24065,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A46" s="32" t="s">
         <v>104</v>
       </c>
@@ -24434,7 +24427,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A47" s="32" t="s">
         <v>104</v>
       </c>
@@ -24796,7 +24789,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A48" s="32" t="s">
         <v>104</v>
       </c>
@@ -25158,7 +25151,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A49" s="32" t="s">
         <v>104</v>
       </c>
@@ -25520,7 +25513,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A50" s="32" t="s">
         <v>104</v>
       </c>
@@ -25882,7 +25875,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A51" s="32" t="s">
         <v>104</v>
       </c>
@@ -26244,7 +26237,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A52" s="32" t="s">
         <v>104</v>
       </c>
@@ -26606,7 +26599,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A53" s="32" t="s">
         <v>104</v>
       </c>
@@ -26968,7 +26961,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A54" s="32" t="s">
         <v>104</v>
       </c>
@@ -27330,7 +27323,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A55" s="32" t="s">
         <v>104</v>
       </c>
@@ -27692,7 +27685,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A56" s="32" t="s">
         <v>104</v>
       </c>
@@ -28054,7 +28047,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A57" s="32" t="s">
         <v>104</v>
       </c>
@@ -28416,7 +28409,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A58" s="32" t="s">
         <v>104</v>
       </c>
@@ -28778,7 +28771,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A59" s="32" t="s">
         <v>104</v>
       </c>
@@ -29140,7 +29133,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A60" s="32" t="s">
         <v>104</v>
       </c>
@@ -29502,7 +29495,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A61" s="32" t="s">
         <v>104</v>
       </c>
@@ -29864,7 +29857,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A62" s="32" t="s">
         <v>104</v>
       </c>
@@ -30226,7 +30219,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A63" s="32" t="s">
         <v>104</v>
       </c>
@@ -30588,7 +30581,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A64" s="32" t="s">
         <v>104</v>
       </c>
@@ -30950,7 +30943,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A65" s="32" t="s">
         <v>104</v>
       </c>
@@ -31312,7 +31305,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A66" s="32" t="s">
         <v>104</v>
       </c>
@@ -31325,7 +31318,7 @@
         <v/>
       </c>
       <c r="D66" s="23" t="str">
-        <f t="shared" ref="D66:D97" si="48">IFERROR(C66*15,"")</f>
+        <f t="shared" ref="D66:D80" si="48">IFERROR(C66*15,"")</f>
         <v/>
       </c>
       <c r="E66" s="32" t="s">
@@ -31340,7 +31333,7 @@
         <v/>
       </c>
       <c r="H66" s="23" t="str">
-        <f t="shared" ref="H66:H97" si="49">IFERROR(10*(99-G66),"")</f>
+        <f t="shared" ref="H66:H80" si="49">IFERROR(10*(99-G66),"")</f>
         <v/>
       </c>
       <c r="I66" s="32" t="s">
@@ -31355,7 +31348,7 @@
         <v/>
       </c>
       <c r="L66" s="23" t="str">
-        <f t="shared" ref="L66:L97" si="50">IFERROR(10*(99-K66),"")</f>
+        <f t="shared" ref="L66:L80" si="50">IFERROR(10*(99-K66),"")</f>
         <v/>
       </c>
       <c r="M66" s="32" t="s">
@@ -31370,7 +31363,7 @@
         <v/>
       </c>
       <c r="P66" s="23" t="str">
-        <f t="shared" ref="P66:P97" si="51">IFERROR(10*(99-O66),"")</f>
+        <f t="shared" ref="P66:P80" si="51">IFERROR(10*(99-O66),"")</f>
         <v/>
       </c>
       <c r="Q66" s="32" t="s">
@@ -31385,7 +31378,7 @@
         <v/>
       </c>
       <c r="T66" s="23" t="str">
-        <f t="shared" ref="T66:T97" si="52">IFERROR(5*(99-S66),"")</f>
+        <f t="shared" ref="T66:T80" si="52">IFERROR(5*(99-S66),"")</f>
         <v/>
       </c>
       <c r="U66" s="32" t="s">
@@ -31400,7 +31393,7 @@
         <v/>
       </c>
       <c r="X66" s="25" t="str">
-        <f t="shared" ref="X66:X97" si="53">IFERROR(8*(1-0.01*W66)^2,"")</f>
+        <f t="shared" ref="X66:X80" si="53">IFERROR(8*(1-0.01*W66)^2,"")</f>
         <v/>
       </c>
       <c r="Y66" s="32" t="s">
@@ -31415,7 +31408,7 @@
         <v/>
       </c>
       <c r="AB66" s="23" t="str">
-        <f t="shared" ref="AB66:AB97" si="54">IFERROR(15.16*AA66,"")</f>
+        <f t="shared" ref="AB66:AB80" si="54">IFERROR(15.16*AA66,"")</f>
         <v/>
       </c>
       <c r="AC66" s="32" t="s">
@@ -31430,7 +31423,7 @@
         <v/>
       </c>
       <c r="AF66" s="23" t="str">
-        <f t="shared" ref="AF66:AF97" si="55">IFERROR(10*(AE66-50),"")</f>
+        <f t="shared" ref="AF66:AF80" si="55">IFERROR(10*(AE66-50),"")</f>
         <v/>
       </c>
       <c r="AG66" s="32" t="s">
@@ -31445,7 +31438,7 @@
         <v/>
       </c>
       <c r="AJ66" s="26" t="str">
-        <f t="shared" ref="AJ66:AJ97" si="56">IFERROR(0.1*AI66+6.4,"")</f>
+        <f t="shared" ref="AJ66:AJ80" si="56">IFERROR(0.1*AI66+6.4,"")</f>
         <v/>
       </c>
       <c r="AK66" s="32" t="s">
@@ -31460,7 +31453,7 @@
         <v/>
       </c>
       <c r="AN66" s="26" t="str">
-        <f t="shared" ref="AN66:AN97" si="57">IFERROR(0.1*AM66,"")</f>
+        <f t="shared" ref="AN66:AN80" si="57">IFERROR(0.1*AM66,"")</f>
         <v/>
       </c>
       <c r="AO66" s="32" t="s">
@@ -31475,7 +31468,7 @@
         <v/>
       </c>
       <c r="AR66" s="25" t="str">
-        <f t="shared" ref="AR66:AR97" si="58">IFERROR(0.15*AQ66,"")</f>
+        <f t="shared" ref="AR66:AR80" si="58">IFERROR(0.15*AQ66,"")</f>
         <v/>
       </c>
       <c r="AS66" s="32" t="s">
@@ -31490,7 +31483,7 @@
         <v/>
       </c>
       <c r="AV66" s="26" t="str">
-        <f t="shared" ref="AV66:AV97" si="59">IFERROR(95.8-1.48*AU66,"")</f>
+        <f t="shared" ref="AV66:AV80" si="59">IFERROR(95.8-1.48*AU66,"")</f>
         <v/>
       </c>
       <c r="AW66" s="32" t="s">
@@ -31505,7 +31498,7 @@
         <v/>
       </c>
       <c r="AZ66" s="26" t="str">
-        <f t="shared" ref="AZ66:AZ97" si="60">IFERROR(95.8-1.48*AY66,"")</f>
+        <f t="shared" ref="AZ66:AZ80" si="60">IFERROR(95.8-1.48*AY66,"")</f>
         <v/>
       </c>
       <c r="BA66" s="32" t="s">
@@ -31520,7 +31513,7 @@
         <v/>
       </c>
       <c r="BD66" s="26" t="str">
-        <f t="shared" ref="BD66:BD97" si="61">IFERROR(95.8-1.48*BC66,"")</f>
+        <f t="shared" ref="BD66:BD80" si="61">IFERROR(95.8-1.48*BC66,"")</f>
         <v/>
       </c>
       <c r="BE66" s="32" t="s">
@@ -31535,7 +31528,7 @@
         <v/>
       </c>
       <c r="BH66" s="26" t="str">
-        <f t="shared" ref="BH66:BH97" si="62">IFERROR(95.8-1.48*BG66,"")</f>
+        <f t="shared" ref="BH66:BH80" si="62">IFERROR(95.8-1.48*BG66,"")</f>
         <v/>
       </c>
       <c r="BI66" s="32" t="s">
@@ -31550,7 +31543,7 @@
         <v/>
       </c>
       <c r="BL66" s="26" t="str">
-        <f t="shared" ref="BL66:BL97" si="63">IFERROR(95.8-1.48*BK66,"")</f>
+        <f t="shared" ref="BL66:BL80" si="63">IFERROR(95.8-1.48*BK66,"")</f>
         <v/>
       </c>
       <c r="BM66" s="32" t="s">
@@ -31565,7 +31558,7 @@
         <v/>
       </c>
       <c r="BP66" s="26" t="str">
-        <f t="shared" ref="BP66:BP97" si="64">IFERROR(95.8-1.48*BO66,"")</f>
+        <f t="shared" ref="BP66:BP80" si="64">IFERROR(95.8-1.48*BO66,"")</f>
         <v/>
       </c>
       <c r="BQ66" s="32" t="s">
@@ -31580,7 +31573,7 @@
         <v/>
       </c>
       <c r="BT66" s="26" t="str">
-        <f t="shared" ref="BT66:BT97" si="65">IFERROR(11.67*BS66,"")</f>
+        <f t="shared" ref="BT66:BT80" si="65">IFERROR(11.67*BS66,"")</f>
         <v/>
       </c>
       <c r="BU66" s="32" t="s">
@@ -31595,7 +31588,7 @@
         <v/>
       </c>
       <c r="BX66" s="26" t="str">
-        <f t="shared" ref="BX66:BX97" si="66">IFERROR(95.8-1.48*BW66,"")</f>
+        <f t="shared" ref="BX66:BX80" si="66">IFERROR(95.8-1.48*BW66,"")</f>
         <v/>
       </c>
       <c r="BY66" s="32" t="s">
@@ -31610,7 +31603,7 @@
         <v/>
       </c>
       <c r="CB66" s="23" t="str">
-        <f t="shared" ref="CB66:CB97" si="67">IFERROR(11+0.82*CA66,"")</f>
+        <f t="shared" ref="CB66:CB80" si="67">IFERROR(11+0.82*CA66,"")</f>
         <v/>
       </c>
       <c r="CC66" s="32" t="s">
@@ -31625,7 +31618,7 @@
         <v/>
       </c>
       <c r="CF66" s="23" t="str">
-        <f t="shared" ref="CF66:CF97" si="68">IFERROR(CE66^2/1.56,"")</f>
+        <f t="shared" ref="CF66:CF80" si="68">IFERROR(CE66^2/1.56,"")</f>
         <v/>
       </c>
       <c r="CG66" s="32" t="s">
@@ -31640,7 +31633,7 @@
         <v/>
       </c>
       <c r="CJ66" s="23" t="str">
-        <f t="shared" ref="CJ66:CJ97" si="69">IFERROR(0.1*CI66^2+35,"")</f>
+        <f t="shared" ref="CJ66:CJ80" si="69">IFERROR(0.1*CI66^2+35,"")</f>
         <v/>
       </c>
       <c r="CK66" s="32" t="s">
@@ -31655,7 +31648,7 @@
         <v/>
       </c>
       <c r="CN66" s="23" t="str">
-        <f t="shared" ref="CN66:CN97" si="70">IFERROR(0.041*CM66^2,"")</f>
+        <f t="shared" ref="CN66:CN80" si="70">IFERROR(0.041*CM66^2,"")</f>
         <v/>
       </c>
       <c r="CO66" s="32" t="s">
@@ -31670,11 +31663,11 @@
         <v/>
       </c>
       <c r="CR66" s="25" t="str">
-        <f t="shared" ref="CR66:CR97" si="71">IFERROR(0.01*CQ66,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:96" x14ac:dyDescent="0.25">
+        <f t="shared" ref="CR66:CR80" si="71">IFERROR(0.01*CQ66,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A67" s="32" t="s">
         <v>104</v>
       </c>
@@ -32036,7 +32029,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A68" s="32" t="s">
         <v>104</v>
       </c>
@@ -32398,7 +32391,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A69" s="32" t="s">
         <v>104</v>
       </c>
@@ -32760,7 +32753,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A70" s="32" t="s">
         <v>104</v>
       </c>
@@ -33122,7 +33115,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A71" s="32" t="s">
         <v>104</v>
       </c>
@@ -33484,7 +33477,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A72" s="32" t="s">
         <v>104</v>
       </c>
@@ -33846,7 +33839,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A73" s="32" t="s">
         <v>104</v>
       </c>
@@ -34208,7 +34201,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A74" s="32" t="s">
         <v>104</v>
       </c>
@@ -34570,7 +34563,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A75" s="32" t="s">
         <v>104</v>
       </c>
@@ -34932,7 +34925,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A76" s="32" t="s">
         <v>104</v>
       </c>
@@ -35294,7 +35287,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A77" s="32" t="s">
         <v>104</v>
       </c>
@@ -35656,7 +35649,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A78" s="32" t="s">
         <v>104</v>
       </c>
@@ -36018,7 +36011,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A79" s="32" t="s">
         <v>104</v>
       </c>
@@ -36380,7 +36373,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A80" s="32" t="s">
         <v>104</v>
       </c>
@@ -36742,7 +36735,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A81" s="32"/>
       <c r="D81" s="23"/>
       <c r="E81" s="32"/>
@@ -36792,7 +36785,7 @@
       <c r="CO81" s="32"/>
       <c r="CR81" s="25"/>
     </row>
-    <row r="82" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A82" s="32"/>
       <c r="D82" s="23"/>
       <c r="E82" s="32"/>
@@ -36842,7 +36835,7 @@
       <c r="CO82" s="32"/>
       <c r="CR82" s="25"/>
     </row>
-    <row r="83" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A83" s="32"/>
       <c r="D83" s="23"/>
       <c r="E83" s="32"/>
@@ -36892,7 +36885,7 @@
       <c r="CO83" s="32"/>
       <c r="CR83" s="25"/>
     </row>
-    <row r="84" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A84" s="32"/>
       <c r="D84" s="23"/>
       <c r="E84" s="32"/>
@@ -36942,7 +36935,7 @@
       <c r="CO84" s="32"/>
       <c r="CR84" s="25"/>
     </row>
-    <row r="85" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A85" s="32"/>
       <c r="D85" s="23"/>
       <c r="E85" s="32"/>
@@ -36992,7 +36985,7 @@
       <c r="CO85" s="32"/>
       <c r="CR85" s="25"/>
     </row>
-    <row r="86" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A86" s="32"/>
       <c r="D86" s="23"/>
       <c r="E86" s="32"/>
@@ -37042,7 +37035,7 @@
       <c r="CO86" s="32"/>
       <c r="CR86" s="25"/>
     </row>
-    <row r="87" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A87" s="32"/>
       <c r="D87" s="23"/>
       <c r="E87" s="32"/>
@@ -37092,7 +37085,7 @@
       <c r="CO87" s="32"/>
       <c r="CR87" s="25"/>
     </row>
-    <row r="88" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A88" s="32"/>
       <c r="D88" s="23"/>
       <c r="E88" s="32"/>
@@ -37142,7 +37135,7 @@
       <c r="CO88" s="32"/>
       <c r="CR88" s="25"/>
     </row>
-    <row r="89" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A89" s="32"/>
       <c r="D89" s="23"/>
       <c r="E89" s="32"/>
@@ -37192,7 +37185,7 @@
       <c r="CO89" s="32"/>
       <c r="CR89" s="25"/>
     </row>
-    <row r="90" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A90" s="32"/>
       <c r="D90" s="23"/>
       <c r="E90" s="32"/>
@@ -37242,7 +37235,7 @@
       <c r="CO90" s="32"/>
       <c r="CR90" s="25"/>
     </row>
-    <row r="91" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A91" s="32"/>
       <c r="D91" s="23"/>
       <c r="E91" s="32"/>
@@ -37292,7 +37285,7 @@
       <c r="CO91" s="32"/>
       <c r="CR91" s="25"/>
     </row>
-    <row r="92" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A92" s="32"/>
       <c r="D92" s="23"/>
       <c r="E92" s="32"/>
@@ -37342,7 +37335,7 @@
       <c r="CO92" s="32"/>
       <c r="CR92" s="25"/>
     </row>
-    <row r="93" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A93" s="32"/>
       <c r="D93" s="23"/>
       <c r="E93" s="32"/>
@@ -37392,7 +37385,7 @@
       <c r="CO93" s="32"/>
       <c r="CR93" s="25"/>
     </row>
-    <row r="94" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A94" s="32"/>
       <c r="D94" s="23"/>
       <c r="E94" s="32"/>
@@ -37442,7 +37435,7 @@
       <c r="CO94" s="32"/>
       <c r="CR94" s="25"/>
     </row>
-    <row r="95" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A95" s="32"/>
       <c r="D95" s="23"/>
       <c r="E95" s="32"/>
@@ -37492,7 +37485,7 @@
       <c r="CO95" s="32"/>
       <c r="CR95" s="25"/>
     </row>
-    <row r="96" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A96" s="32"/>
       <c r="D96" s="23"/>
       <c r="E96" s="32"/>
@@ -37542,7 +37535,7 @@
       <c r="CO96" s="32"/>
       <c r="CR96" s="25"/>
     </row>
-    <row r="97" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A97" s="32"/>
       <c r="D97" s="23"/>
       <c r="E97" s="32"/>
@@ -37592,7 +37585,7 @@
       <c r="CO97" s="32"/>
       <c r="CR97" s="25"/>
     </row>
-    <row r="98" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A98" s="32"/>
       <c r="D98" s="23"/>
       <c r="E98" s="32"/>
@@ -37642,7 +37635,7 @@
       <c r="CO98" s="32"/>
       <c r="CR98" s="25"/>
     </row>
-    <row r="99" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A99" s="32"/>
       <c r="D99" s="23"/>
       <c r="E99" s="32"/>
@@ -37692,7 +37685,7 @@
       <c r="CO99" s="32"/>
       <c r="CR99" s="25"/>
     </row>
-    <row r="100" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A100" s="32"/>
       <c r="D100" s="23"/>
       <c r="E100" s="32"/>
@@ -37742,7 +37735,7 @@
       <c r="CO100" s="32"/>
       <c r="CR100" s="25"/>
     </row>
-    <row r="101" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A101" s="32"/>
       <c r="D101" s="23"/>
       <c r="E101" s="32"/>
@@ -37792,7 +37785,7 @@
       <c r="CO101" s="32"/>
       <c r="CR101" s="25"/>
     </row>
-    <row r="102" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A102" s="32"/>
       <c r="D102" s="23"/>
       <c r="E102" s="32"/>
@@ -37842,7 +37835,7 @@
       <c r="CO102" s="32"/>
       <c r="CR102" s="25"/>
     </row>
-    <row r="103" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A103" s="32"/>
       <c r="D103" s="23"/>
       <c r="E103" s="32"/>
@@ -37892,7 +37885,7 @@
       <c r="CO103" s="32"/>
       <c r="CR103" s="25"/>
     </row>
-    <row r="104" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A104" s="32"/>
       <c r="D104" s="23"/>
       <c r="E104" s="32"/>
@@ -37942,7 +37935,7 @@
       <c r="CO104" s="32"/>
       <c r="CR104" s="25"/>
     </row>
-    <row r="105" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A105" s="32"/>
       <c r="D105" s="23"/>
       <c r="E105" s="32"/>
@@ -37992,7 +37985,7 @@
       <c r="CO105" s="32"/>
       <c r="CR105" s="25"/>
     </row>
-    <row r="106" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A106" s="32"/>
       <c r="D106" s="23"/>
       <c r="E106" s="32"/>
@@ -38042,7 +38035,7 @@
       <c r="CO106" s="32"/>
       <c r="CR106" s="25"/>
     </row>
-    <row r="107" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A107" s="32"/>
       <c r="D107" s="23"/>
       <c r="E107" s="32"/>
@@ -38092,7 +38085,7 @@
       <c r="CO107" s="32"/>
       <c r="CR107" s="25"/>
     </row>
-    <row r="108" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A108" s="32"/>
       <c r="D108" s="23"/>
       <c r="E108" s="32"/>
@@ -38142,7 +38135,7 @@
       <c r="CO108" s="32"/>
       <c r="CR108" s="25"/>
     </row>
-    <row r="109" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A109" s="32"/>
       <c r="D109" s="23"/>
       <c r="E109" s="32"/>
@@ -38192,7 +38185,7 @@
       <c r="CO109" s="32"/>
       <c r="CR109" s="25"/>
     </row>
-    <row r="110" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A110" s="32"/>
       <c r="D110" s="23"/>
       <c r="E110" s="32"/>
@@ -38242,7 +38235,7 @@
       <c r="CO110" s="32"/>
       <c r="CR110" s="25"/>
     </row>
-    <row r="111" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A111" s="32"/>
       <c r="D111" s="23"/>
       <c r="E111" s="32"/>
@@ -38292,7 +38285,7 @@
       <c r="CO111" s="32"/>
       <c r="CR111" s="25"/>
     </row>
-    <row r="112" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A112" s="32"/>
       <c r="D112" s="23"/>
       <c r="E112" s="32"/>
@@ -38342,7 +38335,7 @@
       <c r="CO112" s="32"/>
       <c r="CR112" s="25"/>
     </row>
-    <row r="113" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A113" s="32"/>
       <c r="D113" s="23"/>
       <c r="E113" s="32"/>
@@ -38392,7 +38385,7 @@
       <c r="CO113" s="32"/>
       <c r="CR113" s="25"/>
     </row>
-    <row r="114" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A114" s="32"/>
       <c r="D114" s="23"/>
       <c r="E114" s="32"/>
@@ -38442,7 +38435,7 @@
       <c r="CO114" s="32"/>
       <c r="CR114" s="25"/>
     </row>
-    <row r="115" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A115" s="32"/>
       <c r="D115" s="23"/>
       <c r="E115" s="32"/>
@@ -38492,7 +38485,7 @@
       <c r="CO115" s="32"/>
       <c r="CR115" s="25"/>
     </row>
-    <row r="116" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A116" s="32"/>
       <c r="D116" s="23"/>
       <c r="E116" s="32"/>
@@ -38542,7 +38535,7 @@
       <c r="CO116" s="32"/>
       <c r="CR116" s="25"/>
     </row>
-    <row r="117" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A117" s="32"/>
       <c r="D117" s="23"/>
       <c r="E117" s="32"/>
@@ -38603,12 +38596,12 @@
   <dimension ref="A1:X81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:24" s="29" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="30" t="s">
         <v>115</v>
       </c>
@@ -38648,7 +38641,7 @@
       <c r="W1" s="30"/>
       <c r="X1" s="30"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -38677,7 +38670,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="str">
         <f t="shared" ref="A3:A66" si="0">IF(B3&lt;&gt;"",A2+1,"")</f>
         <v/>
@@ -38707,7 +38700,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A4" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -38737,7 +38730,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -38767,7 +38760,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A6" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -38797,7 +38790,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A7" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -38827,7 +38820,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A8" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -38857,7 +38850,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A9" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -38887,7 +38880,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A10" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -38917,7 +38910,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A11" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -38947,7 +38940,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A12" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -38977,7 +38970,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A13" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -39007,7 +39000,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A14" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -39037,7 +39030,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A15" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -39067,7 +39060,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A16" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -39097,7 +39090,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -39127,7 +39120,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -39157,7 +39150,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -39187,7 +39180,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -39217,7 +39210,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -39247,7 +39240,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -39277,7 +39270,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -39307,7 +39300,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -39337,7 +39330,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -39367,7 +39360,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -39397,7 +39390,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -39427,7 +39420,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -39457,7 +39450,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -39487,7 +39480,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -39517,7 +39510,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -39547,7 +39540,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -39577,7 +39570,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -39607,7 +39600,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -39637,7 +39630,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -39667,7 +39660,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -39697,7 +39690,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -39727,7 +39720,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -39757,7 +39750,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -39787,7 +39780,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -39817,7 +39810,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -39847,7 +39840,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -39877,7 +39870,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -39907,7 +39900,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -39937,7 +39930,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -39967,7 +39960,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -39997,7 +39990,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -40027,7 +40020,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -40057,7 +40050,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -40087,7 +40080,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -40117,7 +40110,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -40147,7 +40140,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -40177,7 +40170,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -40207,7 +40200,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -40237,7 +40230,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -40267,7 +40260,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -40297,7 +40290,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -40327,7 +40320,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -40357,7 +40350,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -40387,7 +40380,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -40417,7 +40410,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -40447,7 +40440,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -40477,7 +40470,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -40507,7 +40500,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -40537,7 +40530,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -40567,7 +40560,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -40597,7 +40590,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" s="20" t="str">
         <f t="shared" ref="A67:A75" si="1">IF(B67&lt;&gt;"",A66+1,"")</f>
         <v/>
@@ -40627,7 +40620,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -40657,7 +40650,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -40687,7 +40680,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -40717,7 +40710,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -40747,7 +40740,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -40777,7 +40770,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -40807,7 +40800,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -40837,7 +40830,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -40867,7 +40860,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" s="20" t="str">
         <f>IF(B76&lt;&gt;"",A75+1,"")</f>
         <v/>
@@ -40897,7 +40890,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" s="20" t="str">
         <f>IF(B77&lt;&gt;"",A76+1,"")</f>
         <v/>
@@ -40927,9 +40920,9 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" s="20" t="str">
-        <f t="shared" ref="A78:A81" si="2">IF(B78&lt;&gt;"",A77+1,"")</f>
+        <f t="shared" ref="A78:A80" si="2">IF(B78&lt;&gt;"",A77+1,"")</f>
         <v/>
       </c>
       <c r="B78" s="19" t="str">
@@ -40957,7 +40950,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" s="20" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -40987,7 +40980,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" s="20" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -41017,30 +41010,24 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="20" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B81" s="19">
-        <f>IFERROR(TLM!$H:$H,"")</f>
-        <v>0</v>
-      </c>
-      <c r="C81" s="19">
-        <f>IFERROR(TLM!$P:$P,"")</f>
-        <v>0</v>
-      </c>
-      <c r="D81" s="19">
-        <f>IFERROR(TLM!$L:$L,"")</f>
-        <v>0</v>
-      </c>
-      <c r="E81" s="19">
-        <f>IFERROR(TLM!AF:AF,"")</f>
-        <v>0</v>
-      </c>
-      <c r="G81" s="19">
-        <f>IFERROR(TLM!AJ:AJ,"")</f>
-        <v>0</v>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A81" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B81" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D81" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E81" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="G81" s="19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -41058,7 +41045,7 @@
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -41074,7 +41061,7 @@
       <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -41090,7 +41077,7 @@
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -41102,18 +41089,18 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J168"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="100.36328125" style="31" customWidth="1"/>
-    <col min="2" max="16384" width="8.6328125" style="31"/>
+    <col min="1" max="1" width="100.33203125" style="31" customWidth="1"/>
+    <col min="2" max="16384" width="8.6640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
@@ -41125,7 +41112,7 @@
       <c r="I2"/>
       <c r="J2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3"/>
@@ -41137,7 +41124,7 @@
       <c r="I3"/>
       <c r="J3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
@@ -41149,7 +41136,7 @@
       <c r="I4"/>
       <c r="J4"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -41161,7 +41148,7 @@
       <c r="I5"/>
       <c r="J5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -41173,7 +41160,7 @@
       <c r="I6"/>
       <c r="J6"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -41185,7 +41172,7 @@
       <c r="I7"/>
       <c r="J7"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -41197,7 +41184,7 @@
       <c r="I8"/>
       <c r="J8"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -41209,7 +41196,7 @@
       <c r="I9"/>
       <c r="J9"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -41221,7 +41208,7 @@
       <c r="I10"/>
       <c r="J10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -41233,7 +41220,7 @@
       <c r="I11"/>
       <c r="J11"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -41245,7 +41232,7 @@
       <c r="I12"/>
       <c r="J12"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -41257,7 +41244,7 @@
       <c r="I13"/>
       <c r="J13"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -41269,7 +41256,7 @@
       <c r="I14"/>
       <c r="J14"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -41281,7 +41268,7 @@
       <c r="I15"/>
       <c r="J15"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -41293,7 +41280,7 @@
       <c r="I16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -41305,7 +41292,7 @@
       <c r="I17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -41317,7 +41304,7 @@
       <c r="I18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -41329,7 +41316,7 @@
       <c r="I19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -41341,7 +41328,7 @@
       <c r="I20"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -41353,7 +41340,7 @@
       <c r="I21"/>
       <c r="J21"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -41365,7 +41352,7 @@
       <c r="I22"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -41377,7 +41364,7 @@
       <c r="I23"/>
       <c r="J23"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -41389,7 +41376,7 @@
       <c r="I24"/>
       <c r="J24"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -41401,7 +41388,7 @@
       <c r="I25"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -41413,7 +41400,7 @@
       <c r="I26"/>
       <c r="J26"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -41425,7 +41412,7 @@
       <c r="I27"/>
       <c r="J27"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -41437,7 +41424,7 @@
       <c r="I28"/>
       <c r="J28"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -41449,7 +41436,7 @@
       <c r="I29"/>
       <c r="J29"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -41461,7 +41448,7 @@
       <c r="I30"/>
       <c r="J30"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -41473,7 +41460,7 @@
       <c r="I31"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -41485,7 +41472,7 @@
       <c r="I32"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -41497,7 +41484,7 @@
       <c r="I33"/>
       <c r="J33"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -41509,7 +41496,7 @@
       <c r="I34"/>
       <c r="J34"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -41521,7 +41508,7 @@
       <c r="I35"/>
       <c r="J35"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -41533,7 +41520,7 @@
       <c r="I36"/>
       <c r="J36"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -41545,7 +41532,7 @@
       <c r="I37"/>
       <c r="J37"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -41557,7 +41544,7 @@
       <c r="I38"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -41569,7 +41556,7 @@
       <c r="I39"/>
       <c r="J39"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -41581,7 +41568,7 @@
       <c r="I40"/>
       <c r="J40"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -41593,7 +41580,7 @@
       <c r="I41"/>
       <c r="J41"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -41605,7 +41592,7 @@
       <c r="I42"/>
       <c r="J42"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -41617,7 +41604,7 @@
       <c r="I43"/>
       <c r="J43"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -41629,7 +41616,7 @@
       <c r="I44"/>
       <c r="J44"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -41641,7 +41628,7 @@
       <c r="I45"/>
       <c r="J45"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -41653,7 +41640,7 @@
       <c r="I46"/>
       <c r="J46"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -41665,7 +41652,7 @@
       <c r="I47"/>
       <c r="J47"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -41677,7 +41664,7 @@
       <c r="I48"/>
       <c r="J48"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
@@ -41689,7 +41676,7 @@
       <c r="I49"/>
       <c r="J49"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
@@ -41701,7 +41688,7 @@
       <c r="I50"/>
       <c r="J50"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
@@ -41713,7 +41700,7 @@
       <c r="I51"/>
       <c r="J51"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -41725,7 +41712,7 @@
       <c r="I52"/>
       <c r="J52"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
@@ -41737,7 +41724,7 @@
       <c r="I53"/>
       <c r="J53"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
@@ -41749,7 +41736,7 @@
       <c r="I54"/>
       <c r="J54"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
@@ -41761,7 +41748,7 @@
       <c r="I55"/>
       <c r="J55"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
@@ -41773,7 +41760,7 @@
       <c r="I56"/>
       <c r="J56"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
@@ -41785,7 +41772,7 @@
       <c r="I57"/>
       <c r="J57"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
@@ -41797,7 +41784,7 @@
       <c r="I58"/>
       <c r="J58"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59"/>
@@ -41809,7 +41796,7 @@
       <c r="I59"/>
       <c r="J59"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
@@ -41821,7 +41808,7 @@
       <c r="I60"/>
       <c r="J60"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
@@ -41833,7 +41820,7 @@
       <c r="I61"/>
       <c r="J61"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
@@ -41845,7 +41832,7 @@
       <c r="I62"/>
       <c r="J62"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63"/>
@@ -41857,7 +41844,7 @@
       <c r="I63"/>
       <c r="J63"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
@@ -41869,7 +41856,7 @@
       <c r="I64"/>
       <c r="J64"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
@@ -41881,7 +41868,7 @@
       <c r="I65"/>
       <c r="J65"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
@@ -41893,7 +41880,7 @@
       <c r="I66"/>
       <c r="J66"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67"/>
@@ -41905,7 +41892,7 @@
       <c r="I67"/>
       <c r="J67"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
@@ -41917,7 +41904,7 @@
       <c r="I68"/>
       <c r="J68"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
@@ -41929,298 +41916,298 @@
       <c r="I69"/>
       <c r="J69"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168"/>
     </row>
   </sheetData>
@@ -42237,401 +42224,401 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:A78"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="102.453125" customWidth="1"/>
+    <col min="1" max="1" width="102.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>154</v>
       </c>
